--- a/controlesacola2/dadosatuais.xlsx
+++ b/controlesacola2/dadosatuais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1325,22 +1325,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OS001096/01P</t>
+          <t>joaoteste</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DELLAWER</t>
+          <t>testando</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1350,12 +1350,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>marrom</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>IDEZ</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>TOTAL OS</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1374,7 +1374,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n">
         <v>9</v>
@@ -1384,22 +1384,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OS001056/01R</t>
+          <t>OS001096/01P</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>DELLAWER</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1433,12 +1433,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OS001080/01K</t>
+          <t>OS001056/01R</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1448,16 +1448,16 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1502,15 +1502,15 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>180</v>
+        <v>500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1551,11 +1551,11 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>GERLUCIO</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OS001056/01R</t>
+          <t>OS001080/01K</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1595,16 +1595,16 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>GERLUCIO</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OS001056/01RX</t>
+          <t>OS001056/01R</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ROXA</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>57</v>
+        <v>342</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -1698,11 +1698,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>WESCLEY</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>266</v>
+        <v>57</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1747,11 +1747,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>WESCLEY</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>OS009999/BRA</t>
+          <t>OS001056/01RX</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OFSET</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1791,16 +1791,16 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>BRANCA</t>
+          <t>ROXA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>DIOMAR</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1825,12 +1825,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>OS001044/01KID</t>
+          <t>OS009999/BRA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>OFSET</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1840,20 +1840,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>BRANCA</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>WESCLEY</t>
+          <t>DIOMAR</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1874,27 +1874,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OS001080/03P</t>
+          <t>OS001044/01KID</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>WESCLEY</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OS001080/03M</t>
+          <t>OS001080/03P</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1982,21 +1982,21 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VERDE MILITAR</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>DIOMAR</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="n">
         <v>9</v>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OS001080/01K</t>
+          <t>OS001080/03M</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2036,20 +2036,20 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>VERDE MILITAR</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>DIOMAR</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>309</v>
+        <v>1000</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OS001056/01R</t>
+          <t>OS001080/01K</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2085,7 +2085,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>92</v>
+        <v>309</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2139,11 +2139,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>GERLUCIO</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>OS001056/01RX</t>
+          <t>OS001056/01R</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2183,16 +2183,16 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ROXA</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>GERLUCIO</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>255</v>
+        <v>153</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2217,12 +2217,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OS001080/01K</t>
+          <t>OS001056/01RX</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2232,25 +2232,25 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>ROXA</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OS001044/01KID</t>
+          <t>OS001080/01K</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>DONA GRACA</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2315,12 +2315,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>OS001080/01K</t>
+          <t>OS001044/01KID</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>DONA GRACA</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001080/01K</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2388,7 +2388,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2433,11 +2433,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>GERLUCIO</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>OS001044/01VE</t>
+          <t>OS001044</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2477,7 +2477,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2501,7 +2501,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="n">
         <v>9</v>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001044/01VE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2526,20 +2526,20 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>VERMELHA</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>GERLUCIO</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2560,12 +2560,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>OS001056/01R</t>
+          <t>OS001044</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2584,7 +2584,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>396</v>
+        <v>319</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2609,12 +2609,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>OS001044/01VE</t>
+          <t>OS001056/01R</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>396</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001044/01VE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2673,16 +2673,16 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>VERMELHA</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DAIANE</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2756,12 +2756,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>OS001063</t>
+          <t>OS001044</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CARIOCA DAS MARCAS</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2780,11 +2780,11 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -2795,7 +2795,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49" t="n">
         <v>9</v>
@@ -2805,12 +2805,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>OS001056/01RX</t>
+          <t>OS001063</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>CARIOCA DAS MARCAS</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2820,16 +2820,16 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ROXA</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>DAIANE</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2854,22 +2854,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>OS001080/03P</t>
+          <t>OS001056/01RX</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>M</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>ROXA</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2878,7 +2878,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2923,11 +2923,11 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>PAULO</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>159</v>
+        <v>220</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -2952,17 +2952,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001080/03P</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>P</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2976,11 +2976,11 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>500</v>
+        <v>159</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>OS001044/01VE</t>
+          <t>OS001044</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3016,16 +3016,16 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DIOMAR</t>
+          <t>PAULO</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3050,12 +3050,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OS001051</t>
+          <t>OS001044/01VE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3065,12 +3065,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>MIRINS E CIA</t>
+          <t>VERMELHA</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>DIOMAR</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3119,11 +3119,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>WESCLEY</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n">
         <v>9</v>
@@ -3148,12 +3148,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>OS009999/DUP</t>
+          <t>OS001051</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SACOLA</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3163,20 +3163,20 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>DUPLEX BRANCA</t>
+          <t>MIRINS E CIA</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>GERLUCIO</t>
+          <t>WESCLEY</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3197,12 +3197,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>OS001080/02VC</t>
+          <t>OS009999/DUP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>SACOLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>VERDE CLARO</t>
+          <t>DUPLEX BRANCA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3221,11 +3221,11 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3266,11 +3266,11 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>ALAIS</t>
+          <t>GERLUCIO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3295,12 +3295,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>OS001051</t>
+          <t>OS001080/02VC</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3310,16 +3310,16 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>MIRINS E CIA</t>
+          <t>VERDE CLARO</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>ALAIS</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3344,12 +3344,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OS001044/01KID</t>
+          <t>OS001051</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3359,20 +3359,20 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>MIRINS E CIA</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>DONA GRACA</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>OS001044/01VE</t>
+          <t>OS001044/01KID</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3408,16 +3408,16 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>GERLUCIO</t>
+          <t>DONA GRACA</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>211</v>
+        <v>400</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001044/01VE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3457,16 +3457,16 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>VERMELHA</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>GERLUCIO</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3491,12 +3491,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>OS001080/01K</t>
+          <t>OS001044</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MARBELLE</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>PRETA</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3515,7 +3515,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>OS001056/01R</t>
+          <t>OS001080/01K</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>MARBELLE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ROSA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3609,11 +3609,11 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>LEDA</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>459</v>
+        <v>192</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3622,7 +3622,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3638,12 +3638,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>OS001044/01VE</t>
+          <t>OS001056/01R</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
+          <t>ROSA</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>219</v>
+        <v>459</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3671,28 +3671,28 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C67" t="n">
         <v>2022</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>OS001097/02R</t>
+          <t>OS001044/01VE</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>PARISI</t>
+          <t>HARDY</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3702,25 +3702,25 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>SALMAO</t>
+          <t>VERMELHA</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>500</v>
+        <v>219</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>RECEBIDO</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
     </row>
@@ -3756,11 +3756,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>FABIANA</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3785,7 +3785,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>OS001097/02B</t>
+          <t>OS001097/02R</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3800,16 +3800,16 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>BRANCA</t>
+          <t>SALMAO</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>WESCLEY</t>
+          <t>FABIANA</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>OS001051</t>
+          <t>OS001097/02B</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>EXITO</t>
+          <t>PARISI</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3849,20 +3849,20 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>MIRINS E CIA</t>
+          <t>BRANCA</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>DIOGO</t>
+          <t>WESCLEY</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>302</v>
+        <v>500</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>RECEBIDO</t>
+          <t>ENVIADO</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>OS001044/01KID</t>
+          <t>OS001051</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>HARDY</t>
+          <t>EXITO</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3898,16 +3898,16 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>KIDS</t>
+          <t>MIRINS E CIA</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>WESCLEY</t>
+          <t>DIOGO</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>432</v>
+        <v>302</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>OS001044</t>
+          <t>OS001044/01KID</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3947,16 +3947,16 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>PRETA</t>
+          <t>KIDS</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>LEDA</t>
+          <t>WESCLEY</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>190</v>
+        <v>432</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -3981,38 +3981,640 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>OS001044</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>PRETA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>LEDA</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>190</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>RECEBIDO</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" t="n">
+        <v>10</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>OS001080/03P</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>MARBELLE</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>P</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>PRETA</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>PAULO</t>
         </is>
       </c>
-      <c r="I73" t="n">
+      <c r="I74" t="n">
         <v>178</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>RECEBIDO</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>joaoteste</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>testando</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>marrom</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>500</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ENVIADO</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>joaoteste</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>testando</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>marrom</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>joao</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>500</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>RECEBIDO</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>joaoteste</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>testando</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>marrom</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>IDEZ</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>500</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>OS001096/01M</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>DELLAWER</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>ADULTO</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>IDEZ</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>500</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>OS001097/02R</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>PARISI</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>SALMAO</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>IDEZ</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>3</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>OS001097/02B</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>PARISI</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>IDEZ</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>OS001063</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>CARIOCA DAS MARCAS</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>PRETA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>OS001056/01R</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>EXITO</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>OS001056/01RX</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>EXITO</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>ROXA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>OS001051</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>EXITO</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>MIRINS E CIA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>OS001044/01KID</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>KIDS</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>OS001044</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>PRETA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>OS001044/01VE</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>HARDY</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>VERMELHA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>DESATIVAR</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/controlesacola2/dadosatuais.xlsx
+++ b/controlesacola2/dadosatuais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,12 +1335,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joaoteste</t>
+          <t>DESATIVADOR</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>testando</t>
+          <t>DESATIVADOR</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1348,18 +1348,14 @@
           <t>P</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>marrom</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>IDEZ</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1564,7 +1560,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1658,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2099,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2148,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2250,7 +2246,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2593,7 +2589,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -2642,7 +2638,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3520,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3569,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3622,7 +3618,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3667,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -3720,7 +3716,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4014,7 +4010,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -4079,12 +4075,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joaoteste</t>
+          <t>DESATIVADOR</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>testando</t>
+          <t>DESATIVADOR</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4092,529 +4088,17 @@
           <t>P</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>marrom</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>ENVIADO</t>
+          <t>DESATIVAR</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1</v>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>joaoteste</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>testando</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>marrom</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>joao</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>500</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>RECEBIDO</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>2</v>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>joaoteste</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>testando</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>marrom</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>IDEZ</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
-        <v>500</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-      <c r="C78" t="n">
-        <v>1</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>OS001096/01M</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>DELLAWER</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>ADULTO</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>IDEZ</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
-        <v>500</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>OS001097/02R</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PARISI</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>SALMAO</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>IDEZ</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1</v>
-      </c>
-      <c r="C80" t="n">
-        <v>1</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>OS001097/02B</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>PARISI</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>BRANCA</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>IDEZ</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>OS001063</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>CARIOCA DAS MARCAS</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>PRETA</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>OS001056/01R</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>EXITO</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>ROSA</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>OS001056/01RX</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>EXITO</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>ROXA</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>OS001051</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>EXITO</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>MIRINS E CIA</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>OS001044/01KID</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>HARDY</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>KIDS</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>OS001044</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>HARDY</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>PRETA</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>OS001044/01VE</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>HARDY</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>VERMELHA</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>DESATIVAR</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>N</t>
         </is>
